--- a/dmsan/reclaimer/scores/Senegal/sys_uncertainties.xlsx
+++ b/dmsan/reclaimer/scores/Senegal/sys_uncertainties.xlsx
@@ -43997,7 +43997,7 @@
         <v>9.800321797633131</v>
       </c>
       <c r="I12" t="n">
-        <v>37.48346162462776</v>
+        <v>37.48346162462774</v>
       </c>
     </row>
     <row r="13">
